--- a/SchedulingData/static4/pso/scheduling1_1.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_1.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.44</v>
+        <v>63.56</v>
       </c>
       <c r="E2" t="n">
-        <v>27.036</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>73.90000000000001</v>
+        <v>53.2</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73.90000000000001</v>
+        <v>63.56</v>
       </c>
       <c r="D4" t="n">
-        <v>164.5</v>
+        <v>113.26</v>
       </c>
       <c r="E4" t="n">
-        <v>20.82</v>
+        <v>23.464</v>
       </c>
     </row>
     <row r="5">
@@ -527,70 +527,70 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46.44</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>101.3</v>
+        <v>55.46</v>
       </c>
       <c r="E5" t="n">
-        <v>22.68</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>101.3</v>
+        <v>113.26</v>
       </c>
       <c r="D6" t="n">
-        <v>162.24</v>
+        <v>161.78</v>
       </c>
       <c r="E6" t="n">
-        <v>18.696</v>
+        <v>19.252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>55.46</v>
       </c>
       <c r="D7" t="n">
-        <v>46.22</v>
+        <v>116.4</v>
       </c>
       <c r="E7" t="n">
-        <v>26.568</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>162.24</v>
+        <v>161.78</v>
       </c>
       <c r="D8" t="n">
-        <v>224.74</v>
+        <v>257.2</v>
       </c>
       <c r="E8" t="n">
-        <v>15.576</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.7</v>
+        <v>61.6</v>
       </c>
       <c r="E9" t="n">
-        <v>27.92</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46.22</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>131.84</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>21.136</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>56.6</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>26.04</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>56.6</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>129.62</v>
+        <v>142.9</v>
       </c>
       <c r="E12" t="n">
-        <v>21.828</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>131.84</v>
+        <v>116.4</v>
       </c>
       <c r="D13" t="n">
-        <v>206.7</v>
+        <v>172.56</v>
       </c>
       <c r="E13" t="n">
-        <v>15.76</v>
+        <v>19.164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>164.5</v>
+        <v>53.2</v>
       </c>
       <c r="D14" t="n">
-        <v>217.3</v>
+        <v>152.5</v>
       </c>
       <c r="E14" t="n">
-        <v>18.18</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>217.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>309.6</v>
+        <v>134.62</v>
       </c>
       <c r="E15" t="n">
-        <v>14.54</v>
+        <v>20.868</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>47.7</v>
+        <v>61.6</v>
       </c>
       <c r="D16" t="n">
-        <v>114.3</v>
+        <v>100.1</v>
       </c>
       <c r="E16" t="n">
-        <v>22.88</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>206.7</v>
+        <v>172.56</v>
       </c>
       <c r="D17" t="n">
-        <v>263.9</v>
+        <v>217.08</v>
       </c>
       <c r="E17" t="n">
-        <v>12.64</v>
+        <v>16.332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>134.62</v>
       </c>
       <c r="D18" t="n">
-        <v>101.34</v>
+        <v>182.22</v>
       </c>
       <c r="E18" t="n">
-        <v>26.496</v>
+        <v>17.748</v>
       </c>
     </row>
     <row r="19">
@@ -789,55 +789,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>114.3</v>
+        <v>100.1</v>
       </c>
       <c r="D19" t="n">
-        <v>177.56</v>
+        <v>186.1</v>
       </c>
       <c r="E19" t="n">
-        <v>19.184</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>101.34</v>
+        <v>142.9</v>
       </c>
       <c r="D20" t="n">
-        <v>198.24</v>
+        <v>208.44</v>
       </c>
       <c r="E20" t="n">
-        <v>23.376</v>
+        <v>18.516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>224.74</v>
+        <v>257.2</v>
       </c>
       <c r="D21" t="n">
-        <v>285.98</v>
+        <v>329.1</v>
       </c>
       <c r="E21" t="n">
-        <v>11.572</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="22">
@@ -846,74 +846,74 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>263.9</v>
+        <v>152.5</v>
       </c>
       <c r="D22" t="n">
-        <v>302.24</v>
+        <v>212.66</v>
       </c>
       <c r="E22" t="n">
-        <v>9.936</v>
+        <v>15.664</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>177.56</v>
+        <v>208.44</v>
       </c>
       <c r="D23" t="n">
-        <v>233.86</v>
+        <v>256.88</v>
       </c>
       <c r="E23" t="n">
-        <v>15.664</v>
+        <v>15.812</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>129.62</v>
+        <v>182.22</v>
       </c>
       <c r="D24" t="n">
-        <v>181.82</v>
+        <v>248.26</v>
       </c>
       <c r="E24" t="n">
-        <v>17.748</v>
+        <v>13.744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>181.82</v>
+        <v>248.26</v>
       </c>
       <c r="D25" t="n">
-        <v>216.62</v>
+        <v>297.18</v>
       </c>
       <c r="E25" t="n">
-        <v>14.908</v>
+        <v>10.972</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>216.62</v>
+        <v>256.88</v>
       </c>
       <c r="D26" t="n">
-        <v>260.54</v>
+        <v>288.98</v>
       </c>
       <c r="E26" t="n">
-        <v>12.136</v>
+        <v>13.732</v>
       </c>
     </row>
     <row r="27">
@@ -945,70 +945,70 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>233.86</v>
+        <v>186.1</v>
       </c>
       <c r="D27" t="n">
-        <v>286.78</v>
+        <v>239.02</v>
       </c>
       <c r="E27" t="n">
-        <v>12.012</v>
+        <v>16.148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>285.98</v>
+        <v>239.02</v>
       </c>
       <c r="D28" t="n">
-        <v>325.6</v>
+        <v>286.82</v>
       </c>
       <c r="E28" t="n">
-        <v>8.74</v>
+        <v>13.508</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>198.24</v>
+        <v>212.66</v>
       </c>
       <c r="D29" t="n">
-        <v>312.34</v>
+        <v>260.06</v>
       </c>
       <c r="E29" t="n">
-        <v>18.056</v>
+        <v>12.544</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>302.24</v>
+        <v>217.08</v>
       </c>
       <c r="D30" t="n">
-        <v>338.6</v>
+        <v>264.08</v>
       </c>
       <c r="E30" t="n">
-        <v>7.44</v>
+        <v>13.252</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>260.54</v>
+        <v>288.98</v>
       </c>
       <c r="D31" t="n">
-        <v>303.94</v>
+        <v>369.82</v>
       </c>
       <c r="E31" t="n">
-        <v>9.416</v>
+        <v>10.228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>309.6</v>
+        <v>260.06</v>
       </c>
       <c r="D32" t="n">
-        <v>391.4</v>
+        <v>329.48</v>
       </c>
       <c r="E32" t="n">
-        <v>11.46</v>
+        <v>10.212</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>325.6</v>
+        <v>264.08</v>
       </c>
       <c r="D33" t="n">
-        <v>385.12</v>
+        <v>361.08</v>
       </c>
       <c r="E33" t="n">
-        <v>6.408</v>
+        <v>10.132</v>
       </c>
     </row>
   </sheetData>
